--- a/2024 Paris Medals.xlsx
+++ b/2024 Paris Medals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danabrego/Documents/Bootcamp Homework/Project 3/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8613E490-417E-CC48-91C8-267B36886A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE55C0A-6073-B54D-ADE7-31F5EB747167}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40980" yWindow="1060" windowWidth="27240" windowHeight="15940" xr2:uid="{10AEAA3C-6CBD-5F4F-BBD4-D5583011E099}"/>
+    <workbookView xWindow="-30700" yWindow="-3020" windowWidth="28800" windowHeight="16440" xr2:uid="{10AEAA3C-6CBD-5F4F-BBD4-D5583011E099}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="60">
   <si>
     <t>discipline_title</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>RSA</t>
+  </si>
+  <si>
+    <t>value_unit</t>
   </si>
 </sst>
 </file>
@@ -314,10 +317,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3809DFAD-21B4-D044-961F-B52BE8B68A3E}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,7 +670,7 @@
     <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -727,11 +733,14 @@
       <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>419430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -759,11 +768,14 @@
       <c r="I3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>420780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -791,11 +803,14 @@
       <c r="I4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>421980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -805,7 +820,7 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
@@ -823,11 +838,14 @@
       <c r="I5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>189280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -837,7 +855,7 @@
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
@@ -855,11 +873,14 @@
       <c r="I6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>190350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -869,7 +890,7 @@
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
@@ -887,11 +908,14 @@
       <c r="I7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>190700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -919,11 +943,14 @@
       <c r="I8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="J8" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>208920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
@@ -951,11 +978,14 @@
       <c r="I9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>210200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
@@ -983,11 +1013,14 @@
       <c r="I10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>210300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -997,7 +1030,7 @@
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
@@ -1015,11 +1048,14 @@
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>458080</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1065,7 @@
       <c r="C12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
@@ -1047,11 +1083,14 @@
       <c r="I12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>460860</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
@@ -1061,7 +1100,7 @@
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" t="s">
         <v>17</v>
       </c>
       <c r="E13" t="s">
@@ -1079,11 +1118,14 @@
       <c r="I13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>462340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1111,11 +1153,14 @@
       <c r="I14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>41780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
@@ -1143,11 +1188,14 @@
       <c r="I15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>41850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1166,7 +1214,7 @@
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="4" t="s">
@@ -1175,11 +1223,14 @@
       <c r="I16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>41970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1207,11 +1258,14 @@
       <c r="I17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>195270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1284,7 @@
       <c r="F18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>35</v>
       </c>
       <c r="H18" s="4" t="s">
@@ -1239,11 +1293,14 @@
       <c r="I18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>199500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1271,11 +1328,14 @@
       <c r="I19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>199720</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1354,7 @@
       <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="G20" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="4" t="s">
@@ -1303,11 +1363,14 @@
       <c r="I20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>37500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1335,11 +1398,14 @@
       <c r="I21" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>37570</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -1367,11 +1433,14 @@
       <c r="I22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J22" s="10" t="s">
+      <c r="J22" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>37610</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1399,11 +1468,14 @@
       <c r="I23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="10" t="s">
+      <c r="J23" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>174430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1422,7 +1494,7 @@
       <c r="F24" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -1431,11 +1503,14 @@
       <c r="I24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>174530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1463,8 +1538,11 @@
       <c r="I25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J25" s="10" t="s">
+      <c r="J25" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="K25">
+        <v>175830</v>
       </c>
     </row>
   </sheetData>
